--- a/プロジェクト開発演習　SSH48 /2.システム設計/06_データベース設計/ER図-途中.xlsx
+++ b/プロジェクト開発演習　SSH48 /2.システム設計/06_データベース設計/ER図-途中.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Desktop/プロジェクト開発演習　SSH48 /2.システム設計/06_データベース設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakaiharuka/Documents/GitHub/SSH48/プロジェクト開発演習　SSH48 /2.システム設計/06_データベース設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D5DE67B-513A-0F4B-BED9-7535CED9AB9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{909FF327-DA1E-3749-9B9D-02F1A9BD8F70}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="28300" windowHeight="16300" xr2:uid="{8B00FEFD-B1E5-184D-AC9E-B739FBFD1A28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8B00FEFD-B1E5-184D-AC9E-B739FBFD1A28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>ユーザーID</t>
     <phoneticPr fontId="1"/>
@@ -64,13 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投票人数</t>
-    <rPh sb="0" eb="1">
-      <t>トウヒョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>温度上げ下げフラグ</t>
     <rPh sb="0" eb="2">
       <t>オンd</t>
@@ -132,6 +125,27 @@
   </si>
   <si>
     <t>外部キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票ID</t>
+    <rPh sb="0" eb="1">
+      <t>トウヒョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織名</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票時刻</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -288,23 +302,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1765300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02849DA2-457C-4B45-AA2B-E04831B6CE34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8C2F88-8323-5A40-8D86-4C3DADF60CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4894792" y="8625417"/>
+          <a:ext cx="952500" cy="727604"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1201790</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C102F20D-652B-7A42-9EA4-DBB6D7A7EE7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -312,8 +379,169 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2235201" y="1549400"/>
-          <a:ext cx="1765299" cy="12700"/>
+          <a:off x="4881867" y="8142062"/>
+          <a:ext cx="954938" cy="4127"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1613958</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79891D7A-B1EC-5E42-AE26-8652C6214BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2566458" y="9379479"/>
+          <a:ext cx="1137710" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>449792</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13229</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD493824-FF7F-3F43-88C7-F0CF4A30C90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-575468" y="8314532"/>
+          <a:ext cx="2566458" cy="515937"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 515"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436563</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13229</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3E1E10-824C-2A4A-9270-190A30F8548E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="436563" y="9842500"/>
+          <a:ext cx="529166" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -342,145 +570,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>13229</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>26458</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EBEC17-55C8-E84A-884C-33111C550696}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9191BFB8-3D23-ED42-A51D-73F5341AC0F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2959100" y="1905000"/>
-          <a:ext cx="1727200" cy="1625600"/>
+        <a:xfrm>
+          <a:off x="2592917" y="7289271"/>
+          <a:ext cx="1124479" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1759480</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>912814</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66144</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="カギ線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852A1617-7FB6-C244-9E65-0D87D4E25717}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3995209" y="1362603"/>
-          <a:ext cx="6852709" cy="2804583"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="カギ線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57382B39-8356-CB42-8889-324E535F9211}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7696200" y="1689100"/>
-          <a:ext cx="3162300" cy="1320800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -504,38 +624,36 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1096818</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="カギ線コネクタ 22">
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FC3C4F-CE48-EB49-8D9D-991873869D53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CD6963-C6DB-2448-97A0-7A6B8D6FDA68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2235200" y="1943100"/>
-          <a:ext cx="4673600" cy="381000"/>
+        <a:xfrm flipV="1">
+          <a:off x="2586182" y="2413000"/>
+          <a:ext cx="1096818" cy="1847273"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="none"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -879,135 +997,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7287C3-4092-A245-9C5B-ABD00B9B9120}">
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:6">
       <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="7" spans="2:6" ht="21" thickBot="1"/>
+    <row r="8" spans="2:6" ht="21" thickBot="1">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21" thickBot="1">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="21" thickBot="1"/>
-    <row r="5" spans="2:10" ht="21" thickBot="1">
-      <c r="B5" s="2" t="s">
+    <row r="11" spans="2:6" ht="21" thickBot="1">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="F14" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21" thickBot="1"/>
+    <row r="16" spans="2:6" ht="21" thickBot="1">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="3" t="s">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="21" thickBot="1">
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="21" thickBot="1">
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="F11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="F13" s="1" t="s">
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="21" thickBot="1">
-      <c r="F14" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="21" thickBot="1">
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>